--- a/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
+++ b/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
@@ -48,7 +48,7 @@
     <t>CANESM5</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>

--- a/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
+++ b/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="842">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -6398,9 +6398,7 @@
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
-      <c r="B183" s="11" t="s">
-        <v>345</v>
-      </c>
+      <c r="B183" s="11"/>
       <c r="AA183" s="6" t="s">
         <v>345</v>
       </c>
@@ -6471,7 +6469,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD72"/>
+  <dimension ref="A1:XFD71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6996,9 +6994,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>413</v>
-      </c>
+      <c r="B71" s="11"/>
       <c r="AA71" s="6" t="s">
         <v>246</v>
       </c>
@@ -7018,31 +7014,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
-      <c r="B72" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA72" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB72" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="AC72" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD72" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE72" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF72" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="13">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -7081,9 +7054,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>AA71:AF71</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AF72</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8200,9 +8170,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>556</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
         <v>556</v>
       </c>

--- a/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
+++ b/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="872">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -237,123 +237,141 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -765,12 +783,21 @@
     <t>Soil humidity</t>
   </si>
   <si>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
+  </si>
+  <si>
+    <t>Vegetation state</t>
+  </si>
+  <si>
     <t>Vegetation type</t>
   </si>
   <si>
-    <t>Vegetation state</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.3.1.3 </t>
   </si>
   <si>
@@ -786,7 +813,10 @@
     <t>Distinction between direct and diffuse albedo</t>
   </si>
   <si>
-    <t>No distinction between direct and diffuse albedo</t>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -873,10 +903,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -984,7 +1014,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>Topmodel-based</t>
+    <t>topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1065,7 +1095,10 @@
     <t>Soil moisture freeze-thaw</t>
   </si>
   <si>
-    <t>Coupling with snow temperature</t>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1128,7 +1161,10 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>Constant</t>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1143,7 +1179,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>Diagnostic</t>
+    <t>diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1197,6 +1233,12 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
+  </si>
+  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1212,18 +1254,24 @@
     <t>Other: snow refreezing</t>
   </si>
   <si>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
+  </si>
+  <si>
     <t>Snow interception</t>
   </si>
   <si>
     <t>Snow melting</t>
   </si>
   <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
-  </si>
-  <si>
     <t>4.1.1.12 *</t>
   </si>
   <si>
@@ -1254,7 +1302,7 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>Prescribed</t>
+    <t>prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1269,13 +1317,16 @@
     <t>Snow age</t>
   </si>
   <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
   </si>
   <si>
     <t>5.1.1</t>
@@ -1350,7 +1401,10 @@
     <t>Vegetation types</t>
   </si>
   <si>
-    <t>Biome types</t>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1368,15 +1422,21 @@
     <t>C3 grass</t>
   </si>
   <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
     <t>Broadleaf tree</t>
   </si>
   <si>
     <t>Needleleaf tree</t>
   </si>
   <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.8 </t>
   </si>
   <si>
@@ -1389,40 +1449,40 @@
     <t>cmip6.land.vegetation.biome_types</t>
   </si>
   <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
   </si>
   <si>
     <t>5.1.1.9 *</t>
@@ -1440,10 +1500,13 @@
     <t>Dynamical (varying from simulation)</t>
   </si>
   <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Prescribed (varying from files)</t>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1482,7 +1545,7 @@
     <t>cmip6.land.vegetation.phenology</t>
   </si>
   <si>
-    <t>Diagnostic (vegetation map)</t>
+    <t>diagnostic (vegetation map)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.13 </t>
@@ -1584,15 +1647,24 @@
     <t>CO2</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Light</t>
   </si>
   <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1677,10 +1749,13 @@
     <t>Beta</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Combined</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1698,6 +1773,9 @@
     <t>Transpiration</t>
   </si>
   <si>
+    <t>transpiration</t>
+  </si>
+  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1758,13 +1836,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1908,13 +1986,16 @@
     <t>Leaves + stems + roots</t>
   </si>
   <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1932,13 +2013,16 @@
     <t>Explicitly calculated</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Function of plant allometry</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2253,10 +2337,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2295,10 +2379,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Tracers</t>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2316,7 +2400,10 @@
     <t>Present day</t>
   </si>
   <si>
-    <t>Adapted for other periods</t>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2364,7 +2451,10 @@
     <t>Direct (large rivers)</t>
   </si>
   <si>
-    <t>Diffuse</t>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2505,10 +2595,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3211,20 +3301,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3235,10 +3325,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3246,7 +3336,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3257,10 +3347,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3273,10 +3363,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3284,10 +3374,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3300,21 +3390,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3322,10 +3412,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3333,10 +3423,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3373,20 +3463,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3397,10 +3487,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3408,7 +3498,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3419,10 +3509,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3435,10 +3525,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3446,10 +3536,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3462,21 +3552,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3484,21 +3574,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3506,10 +3596,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3517,10 +3607,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>733</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3528,21 +3618,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>735</v>
+        <v>763</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3550,10 +3640,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>739</v>
+        <v>767</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3561,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3575,10 +3665,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3586,21 +3676,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>746</v>
+        <v>774</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3610,10 +3700,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3621,10 +3711,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3637,10 +3727,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3648,10 +3738,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>755</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3662,13 +3752,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3676,10 +3766,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3687,21 +3777,21 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>763</v>
+        <v>792</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3709,10 +3799,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>764</v>
+        <v>793</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>765</v>
+        <v>794</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3720,10 +3810,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>766</v>
+        <v>795</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3736,10 +3826,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3747,10 +3837,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3763,23 +3853,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>775</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3787,21 +3877,21 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>778</v>
+        <v>808</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>779</v>
+        <v>809</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3809,10 +3899,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>781</v>
+        <v>811</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3820,10 +3910,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3834,13 +3924,13 @@
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
@@ -3896,20 +3986,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3920,10 +4010,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>788</v>
+        <v>818</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>789</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3931,7 +4021,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3942,10 +4032,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>791</v>
+        <v>821</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>792</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3958,21 +4048,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>793</v>
+        <v>823</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>794</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>795</v>
+        <v>825</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>796</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3982,21 +4072,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4004,10 +4094,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4015,10 +4105,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>802</v>
+        <v>832</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4029,13 +4119,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4043,10 +4133,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>805</v>
+        <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4054,10 +4144,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>806</v>
+        <v>836</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>807</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4065,10 +4155,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4076,10 +4166,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>809</v>
+        <v>839</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4092,34 +4182,34 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>812</v>
+        <v>842</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>813</v>
+        <v>843</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4129,10 +4219,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>818</v>
+        <v>848</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -4140,21 +4230,21 @@
         <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>820</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -4162,10 +4252,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>822</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -4173,10 +4263,10 @@
         <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>824</v>
+        <v>854</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4187,13 +4277,13 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>826</v>
+        <v>856</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>827</v>
+        <v>857</v>
       </c>
       <c r="AD50" s="6" t="s">
         <v>75</v>
@@ -4201,21 +4291,21 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>829</v>
+        <v>859</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4225,21 +4315,21 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>833</v>
+        <v>863</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>834</v>
+        <v>864</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4249,20 +4339,20 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>62</v>
@@ -4273,10 +4363,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>841</v>
+        <v>871</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4668,7 +4758,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>85</v>
@@ -4694,7 +4784,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>85</v>
@@ -4720,7 +4810,7 @@
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA38" s="6" t="s">
         <v>85</v>
@@ -4746,10 +4836,10 @@
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4757,10 +4847,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
@@ -4768,10 +4858,10 @@
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4779,10 +4869,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
@@ -4795,23 +4885,23 @@
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4819,10 +4909,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4835,10 +4925,10 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4846,10 +4936,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -4862,10 +4952,10 @@
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4873,10 +4963,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -4889,34 +4979,34 @@
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -4924,21 +5014,21 @@
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -4946,10 +5036,10 @@
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -4957,10 +5047,10 @@
         <v>46</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -4968,23 +5058,23 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4992,10 +5082,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5003,10 +5093,10 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5014,10 +5104,10 @@
         <v>46</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -5025,10 +5115,10 @@
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5036,10 +5126,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5052,20 +5142,20 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>62</v>
@@ -5076,10 +5166,10 @@
         <v>46</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -5134,20 +5224,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5158,10 +5248,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5169,7 +5259,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5180,10 +5270,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5196,20 +5286,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
@@ -5220,10 +5310,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5236,21 +5326,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5258,20 +5348,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5282,10 +5372,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5298,21 +5388,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5347,20 +5437,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5371,10 +5461,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5382,7 +5472,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5393,10 +5483,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5409,10 +5499,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5420,10 +5510,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5431,21 +5521,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5453,10 +5543,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5464,10 +5554,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5480,20 +5570,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5504,10 +5594,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5520,10 +5610,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5531,10 +5621,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5542,10 +5632,10 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5553,23 +5643,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5577,10 +5667,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5588,10 +5678,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5599,10 +5689,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -5610,10 +5700,10 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5621,10 +5711,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5632,21 +5722,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5654,10 +5744,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5665,10 +5755,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5676,34 +5766,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5711,10 +5801,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5722,10 +5812,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5735,16 +5825,16 @@
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>75</v>
@@ -5752,16 +5842,16 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AD75" s="6" t="s">
         <v>75</v>
@@ -5769,16 +5859,16 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AD76" s="6" t="s">
         <v>75</v>
@@ -5786,10 +5876,10 @@
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -5797,21 +5887,21 @@
         <v>67</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="AA80" s="6" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AC80" s="6" t="s">
         <v>75</v>
@@ -5819,21 +5909,21 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -5841,20 +5931,20 @@
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="13" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>62</v>
@@ -5865,10 +5955,10 @@
         <v>46</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -5881,21 +5971,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5903,10 +5993,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -5914,10 +6004,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -5930,10 +6020,10 @@
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -5941,10 +6031,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -5957,21 +6047,21 @@
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -5979,10 +6069,10 @@
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:31" ht="24" customHeight="1">
@@ -5990,10 +6080,10 @@
         <v>67</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:31" ht="24" customHeight="1">
@@ -6004,10 +6094,10 @@
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="B116" s="11"/>
       <c r="AA116" s="6" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AB116" s="6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AC116" s="6" t="s">
         <v>75</v>
@@ -6015,10 +6105,10 @@
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:31" ht="24" customHeight="1">
@@ -6026,27 +6116,27 @@
         <v>67</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:31" ht="24" customHeight="1">
       <c r="B120" s="11" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AA120" s="6" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AB120" s="6" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AC120" s="6" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AD120" s="6" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AE120" s="6" t="s">
         <v>75</v>
@@ -6054,34 +6144,34 @@
     </row>
     <row r="123" spans="1:31" ht="24" customHeight="1">
       <c r="A123" s="12" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="B124" s="13" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:31" ht="24" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
@@ -6089,10 +6179,10 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
@@ -6100,10 +6190,10 @@
         <v>46</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
@@ -6111,10 +6201,10 @@
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -6122,10 +6212,10 @@
         <v>46</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
@@ -6138,20 +6228,20 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="A140" s="12" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="13" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>62</v>
@@ -6162,10 +6252,10 @@
         <v>46</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
@@ -6178,10 +6268,10 @@
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
@@ -6189,10 +6279,10 @@
         <v>67</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
@@ -6203,22 +6293,22 @@
     <row r="151" spans="1:33" ht="24" customHeight="1">
       <c r="B151" s="11"/>
       <c r="AA151" s="6" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="AB151" s="6" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AC151" s="6" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="AD151" s="6" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AE151" s="6" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="AF151" s="6" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AG151" s="6" t="s">
         <v>75</v>
@@ -6226,20 +6316,20 @@
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
       <c r="A154" s="12" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="B155" s="13" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>62</v>
@@ -6250,10 +6340,10 @@
         <v>46</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
@@ -6266,21 +6356,21 @@
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -6288,10 +6378,10 @@
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -6299,10 +6389,10 @@
         <v>46</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -6315,10 +6405,10 @@
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
@@ -6326,10 +6416,10 @@
         <v>46</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -6342,10 +6432,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -6353,21 +6443,21 @@
         <v>67</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="11" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AA178" s="6" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AB178" s="6" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AC178" s="6" t="s">
         <v>75</v>
@@ -6375,10 +6465,10 @@
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
@@ -6386,10 +6476,10 @@
         <v>67</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -6398,12 +6488,14 @@
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
-      <c r="B183" s="11"/>
+      <c r="B183" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="AA183" s="6" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AC183" s="6" t="s">
         <v>75</v>
@@ -6469,7 +6561,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD71"/>
+  <dimension ref="A1:XFD72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6483,20 +6575,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6507,10 +6599,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6518,7 +6610,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6529,10 +6621,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6545,10 +6637,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6556,10 +6648,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6572,21 +6664,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6594,10 +6686,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6605,21 +6697,21 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6627,10 +6719,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6638,21 +6730,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6660,10 +6752,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6671,21 +6763,21 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6693,10 +6785,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6704,21 +6796,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6726,10 +6818,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6737,21 +6829,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6759,10 +6851,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6770,10 +6862,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6783,13 +6875,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6797,13 +6889,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6811,10 +6903,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6822,10 +6914,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6835,19 +6927,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6855,19 +6947,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6875,19 +6967,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6895,10 +6987,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6906,10 +6998,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6922,23 +7014,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6946,24 +7038,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -6971,10 +7063,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -6982,10 +7074,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -6994,28 +7086,53 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>429</v>
+      </c>
       <c r="AA71" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="72" spans="1:32" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF72" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -7055,6 +7172,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>AA71:AF71</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>AA72:AF72</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7076,20 +7196,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7100,10 +7220,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7111,7 +7231,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7122,10 +7242,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7138,21 +7258,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7160,21 +7280,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7182,10 +7302,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7193,10 +7313,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7209,10 +7329,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7220,21 +7340,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7242,10 +7362,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7253,10 +7373,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7266,19 +7386,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7289,19 +7409,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7312,19 +7432,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7335,19 +7455,19 @@
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="AE36" s="6" t="s">
         <v>90</v>
@@ -7358,10 +7478,10 @@
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7369,10 +7489,10 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
@@ -7383,40 +7503,40 @@
     <row r="41" spans="1:39" ht="24" customHeight="1">
       <c r="B41" s="11"/>
       <c r="AA41" s="6" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="AM41" s="6" t="s">
         <v>75</v>
@@ -7424,10 +7544,10 @@
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
@@ -7435,24 +7555,24 @@
         <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>75</v>
@@ -7460,10 +7580,10 @@
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7471,10 +7591,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7482,21 +7602,21 @@
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -7506,10 +7626,10 @@
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -7517,21 +7637,21 @@
         <v>67</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>75</v>
@@ -7539,10 +7659,10 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7550,10 +7670,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7566,10 +7686,10 @@
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -7577,24 +7697,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -7602,10 +7722,10 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7613,10 +7733,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7629,10 +7749,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7640,21 +7760,21 @@
         <v>67</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AC75" s="6" t="s">
         <v>75</v>
@@ -7662,10 +7782,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7673,10 +7793,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7689,10 +7809,10 @@
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
@@ -7700,19 +7820,19 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AC84" s="6" t="s">
         <v>75</v>
@@ -7720,10 +7840,10 @@
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7731,10 +7851,10 @@
         <v>46</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -7747,10 +7867,10 @@
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7758,10 +7878,10 @@
         <v>67</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
@@ -7771,22 +7891,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>378</v>
+        <v>541</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7794,22 +7914,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>378</v>
+        <v>541</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>75</v>
@@ -7817,22 +7937,22 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>378</v>
+        <v>541</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>75</v>
@@ -7840,22 +7960,22 @@
     </row>
     <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>378</v>
+        <v>541</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="AF97" s="6" t="s">
         <v>75</v>
@@ -7863,10 +7983,10 @@
     </row>
     <row r="99" spans="1:32" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="24" customHeight="1">
@@ -7874,10 +7994,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="24" customHeight="1">
@@ -7890,10 +8010,10 @@
     </row>
     <row r="104" spans="1:32" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="24" customHeight="1">
@@ -7901,10 +8021,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="24" customHeight="1">
@@ -7992,20 +8112,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8016,10 +8136,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8027,7 +8147,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8038,10 +8158,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8054,10 +8174,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8065,10 +8185,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8081,21 +8201,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8103,10 +8223,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8114,10 +8234,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8127,19 +8247,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8147,10 +8267,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8158,10 +8278,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8170,9 +8290,11 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>581</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8210,20 +8332,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8234,10 +8356,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8245,7 +8367,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8256,10 +8378,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8269,15 +8391,15 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8285,10 +8407,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8301,21 +8423,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8323,10 +8445,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8334,10 +8456,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8348,13 +8470,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8362,10 +8484,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8373,10 +8495,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8389,34 +8511,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8424,10 +8546,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8435,10 +8557,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8448,15 +8570,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8464,10 +8586,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8480,23 +8602,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8504,10 +8626,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8520,23 +8642,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8544,10 +8666,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8560,10 +8682,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8571,10 +8693,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8587,23 +8709,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8611,10 +8733,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8627,10 +8749,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8638,27 +8760,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8666,10 +8788,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8677,27 +8799,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8705,23 +8827,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8729,10 +8851,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8740,23 +8862,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8764,10 +8886,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8775,34 +8897,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8810,10 +8932,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8821,10 +8943,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8837,10 +8959,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8848,10 +8970,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8864,10 +8986,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8875,10 +8997,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8891,34 +9013,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8926,10 +9048,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8937,10 +9059,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8950,15 +9072,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8966,10 +9088,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8982,10 +9104,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -8993,10 +9115,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9009,34 +9131,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9044,10 +9166,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9055,10 +9177,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9071,10 +9193,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9082,10 +9204,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9098,10 +9220,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9109,10 +9231,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
+++ b/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="842">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -237,19 +237,19 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>carbon</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>phospherous</t>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Phospherous</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -282,30 +282,21 @@
     <t>Other: ice</t>
   </si>
   <si>
-    <t>bare soil</t>
-  </si>
-  <si>
-    <t>urban</t>
-  </si>
-  <si>
-    <t>lake</t>
-  </si>
-  <si>
-    <t>land ice</t>
-  </si>
-  <si>
-    <t>lake ice</t>
-  </si>
-  <si>
-    <t>vegetated</t>
-  </si>
-  <si>
     <t>Bare soil</t>
   </si>
   <si>
     <t>Urban</t>
   </si>
   <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Land ice</t>
+  </si>
+  <si>
+    <t>Lake ice</t>
+  </si>
+  <si>
     <t>Vegetated</t>
   </si>
   <si>
@@ -345,9 +336,6 @@
     <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -357,9 +345,6 @@
     <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -369,9 +354,6 @@
     <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
-    <t>Carbon</t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -783,21 +765,12 @@
     <t>Soil humidity</t>
   </si>
   <si>
-    <t>vegetation type</t>
-  </si>
-  <si>
-    <t>soil humidity</t>
-  </si>
-  <si>
-    <t>vegetation state</t>
+    <t>Vegetation type</t>
   </si>
   <si>
     <t>Vegetation state</t>
   </si>
   <si>
-    <t>Vegetation type</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.3.1.3 </t>
   </si>
   <si>
@@ -813,10 +786,7 @@
     <t>Distinction between direct and diffuse albedo</t>
   </si>
   <si>
-    <t>distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>no distinction between direct and diffuse albedo</t>
+    <t>No distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -903,10 +873,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>perfect connectivity: Common soil for multiple tiles</t>
-  </si>
-  <si>
-    <t>Darcian flow: Darcian flow among hillslope tiles</t>
+    <t>Perfect connectivity</t>
+  </si>
+  <si>
+    <t>Darcian flow</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -1014,7 +984,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>topmodel-based</t>
+    <t>Topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1095,10 +1065,7 @@
     <t>Soil moisture freeze-thaw</t>
   </si>
   <si>
-    <t>soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>coupling with snow temperature</t>
+    <t>Coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1161,10 +1128,7 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>prognostic</t>
-  </si>
-  <si>
-    <t>constant</t>
+    <t>Constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1179,7 +1143,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>diagnostic</t>
+    <t>Diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1233,12 +1197,6 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
-    <t>ground snow fraction</t>
-  </si>
-  <si>
-    <t>vegetation snow fraction</t>
-  </si>
-  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1254,24 +1212,18 @@
     <t>Other: snow refreezing</t>
   </si>
   <si>
-    <t>snow interception</t>
-  </si>
-  <si>
-    <t>snow melting</t>
-  </si>
-  <si>
-    <t>snow freezing</t>
-  </si>
-  <si>
-    <t>blowing snow</t>
-  </si>
-  <si>
     <t>Snow interception</t>
   </si>
   <si>
     <t>Snow melting</t>
   </si>
   <si>
+    <t>Snow freezing</t>
+  </si>
+  <si>
+    <t>Blowing snow</t>
+  </si>
+  <si>
     <t>4.1.1.12 *</t>
   </si>
   <si>
@@ -1302,7 +1254,7 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>prescribed</t>
+    <t>Prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1317,16 +1269,13 @@
     <t>Snow age</t>
   </si>
   <si>
-    <t>snow age</t>
-  </si>
-  <si>
-    <t>snow density</t>
-  </si>
-  <si>
-    <t>snow grain type</t>
-  </si>
-  <si>
-    <t>aerosol deposition</t>
+    <t>Snow density</t>
+  </si>
+  <si>
+    <t>Snow grain type</t>
+  </si>
+  <si>
+    <t>Aerosol deposition</t>
   </si>
   <si>
     <t>5.1.1</t>
@@ -1401,10 +1350,7 @@
     <t>Vegetation types</t>
   </si>
   <si>
-    <t>vegetation types</t>
-  </si>
-  <si>
-    <t>biome types</t>
+    <t>Biome types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1422,21 +1368,15 @@
     <t>C3 grass</t>
   </si>
   <si>
-    <t>broadleaf tree</t>
-  </si>
-  <si>
-    <t>needleleaf tree</t>
+    <t>Broadleaf tree</t>
+  </si>
+  <si>
+    <t>Needleleaf tree</t>
   </si>
   <si>
     <t>C4 grass</t>
   </si>
   <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.8 </t>
   </si>
   <si>
@@ -1449,40 +1389,40 @@
     <t>cmip6.land.vegetation.biome_types</t>
   </si>
   <si>
-    <t>evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>mixed forest</t>
-  </si>
-  <si>
-    <t>woodland</t>
-  </si>
-  <si>
-    <t>wooded grassland</t>
-  </si>
-  <si>
-    <t>closed shrubland</t>
-  </si>
-  <si>
-    <t>opne shrubland</t>
-  </si>
-  <si>
-    <t>grassland</t>
-  </si>
-  <si>
-    <t>cropland</t>
-  </si>
-  <si>
-    <t>wetlands</t>
+    <t>Evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>Evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>Deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>Deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>Mixed forest</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>Wooded grassland</t>
+  </si>
+  <si>
+    <t>Closed shrubland</t>
+  </si>
+  <si>
+    <t>Opne shrubland</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>Cropland</t>
+  </si>
+  <si>
+    <t>Wetlands</t>
   </si>
   <si>
     <t>5.1.1.9 *</t>
@@ -1500,13 +1440,10 @@
     <t>Dynamical (varying from simulation)</t>
   </si>
   <si>
-    <t>fixed (not varying)</t>
-  </si>
-  <si>
-    <t>prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>dynamical (varying from simulation)</t>
+    <t>Fixed (not varying)</t>
+  </si>
+  <si>
+    <t>Prescribed (varying from files)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1545,7 +1482,7 @@
     <t>cmip6.land.vegetation.phenology</t>
   </si>
   <si>
-    <t>diagnostic (vegetation map)</t>
+    <t>Diagnostic (vegetation map)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.13 </t>
@@ -1647,24 +1584,15 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>water availability</t>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Water availability</t>
   </si>
   <si>
     <t>O3</t>
   </si>
   <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Water availability</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1749,13 +1677,10 @@
     <t>Beta</t>
   </si>
   <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>combined</t>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1773,9 +1698,6 @@
     <t>Transpiration</t>
   </si>
   <si>
-    <t>transpiration</t>
-  </si>
-  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1836,13 +1758,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>grand slam protocol</t>
-  </si>
-  <si>
-    <t>residence time</t>
-  </si>
-  <si>
-    <t>decay time</t>
+    <t>Grand slam protocol</t>
+  </si>
+  <si>
+    <t>Residence time</t>
+  </si>
+  <si>
+    <t>Decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1986,16 +1908,13 @@
     <t>Leaves + stems + roots</t>
   </si>
   <si>
-    <t>leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>whole plant (no distinction)</t>
+    <t>Leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>Leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>Whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -2013,16 +1932,13 @@
     <t>Explicitly calculated</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>function of vegetation type</t>
-  </si>
-  <si>
-    <t>function of plant allometry</t>
-  </si>
-  <si>
-    <t>explicitly calculated</t>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Function of vegetation type</t>
+  </si>
+  <si>
+    <t>Function of plant allometry</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2337,10 +2253,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>flood plains</t>
-  </si>
-  <si>
-    <t>irrigation</t>
+    <t>Flood plains</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2379,10 +2295,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>tracers</t>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2400,10 +2316,7 @@
     <t>Present day</t>
   </si>
   <si>
-    <t>present day</t>
-  </si>
-  <si>
-    <t>adapted for other periods</t>
+    <t>Adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2451,10 +2364,7 @@
     <t>Direct (large rivers)</t>
   </si>
   <si>
-    <t>direct (large rivers)</t>
-  </si>
-  <si>
-    <t>diffuse</t>
+    <t>Diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2595,10 +2505,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>vertical</t>
-  </si>
-  <si>
-    <t>horizontal</t>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3301,20 +3211,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3325,10 +3235,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3336,7 +3246,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3347,10 +3257,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3363,10 +3273,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3374,10 +3284,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3390,21 +3300,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3412,10 +3322,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3423,10 +3333,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3463,20 +3373,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3487,10 +3397,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3498,7 +3408,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3509,10 +3419,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3525,10 +3435,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3536,10 +3446,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3552,21 +3462,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3574,21 +3484,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3596,10 +3506,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3607,10 +3517,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3618,21 +3528,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3640,10 +3550,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3651,10 +3561,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3665,10 +3575,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3676,21 +3586,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3700,10 +3610,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3711,10 +3621,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3727,10 +3637,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3738,10 +3648,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3752,13 +3662,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3766,10 +3676,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3777,21 +3687,21 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>791</v>
+        <v>762</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3799,10 +3709,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>794</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3810,10 +3720,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>795</v>
+        <v>766</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>796</v>
+        <v>767</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3826,10 +3736,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>797</v>
+        <v>768</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3837,10 +3747,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3853,23 +3763,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>802</v>
+        <v>773</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>803</v>
+        <v>774</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3877,21 +3787,21 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>806</v>
+        <v>777</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>807</v>
+        <v>778</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>808</v>
+        <v>778</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3899,10 +3809,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>811</v>
+        <v>781</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3910,10 +3820,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3924,13 +3834,13 @@
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
@@ -3986,20 +3896,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>814</v>
+        <v>784</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>816</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4010,10 +3920,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>818</v>
+        <v>788</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>819</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4021,7 +3931,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>820</v>
+        <v>790</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4032,10 +3942,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>822</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4048,21 +3958,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>823</v>
+        <v>793</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>825</v>
+        <v>795</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>826</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4072,21 +3982,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>827</v>
+        <v>797</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>829</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4094,10 +4004,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>831</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4105,10 +4015,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4119,13 +4029,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4133,10 +4043,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4144,10 +4054,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>837</v>
+        <v>807</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4155,10 +4065,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>838</v>
+        <v>808</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4166,10 +4076,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>839</v>
+        <v>809</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4182,34 +4092,34 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>841</v>
+        <v>811</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>842</v>
+        <v>812</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>843</v>
+        <v>813</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>844</v>
+        <v>814</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>845</v>
+        <v>815</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>846</v>
+        <v>816</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>847</v>
+        <v>817</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4219,10 +4129,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>848</v>
+        <v>818</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -4230,21 +4140,21 @@
         <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>849</v>
+        <v>819</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>850</v>
+        <v>820</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -4252,10 +4162,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>851</v>
+        <v>821</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>852</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -4263,10 +4173,10 @@
         <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>853</v>
+        <v>823</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4277,13 +4187,13 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>855</v>
+        <v>825</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="AD50" s="6" t="s">
         <v>75</v>
@@ -4291,21 +4201,21 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>858</v>
+        <v>828</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>859</v>
+        <v>829</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>861</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4315,21 +4225,21 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>862</v>
+        <v>832</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>863</v>
+        <v>833</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>865</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4339,20 +4249,20 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>866</v>
+        <v>836</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>868</v>
+        <v>838</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>869</v>
+        <v>839</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>62</v>
@@ -4363,10 +4273,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>871</v>
+        <v>841</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4758,7 +4668,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>85</v>
@@ -4784,7 +4694,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>85</v>
@@ -4810,7 +4720,7 @@
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AA38" s="6" t="s">
         <v>85</v>
@@ -4836,10 +4746,10 @@
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4847,10 +4757,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
@@ -4858,10 +4768,10 @@
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4869,10 +4779,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
@@ -4885,23 +4795,23 @@
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4909,10 +4819,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4925,10 +4835,10 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4936,10 +4846,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -4952,10 +4862,10 @@
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4963,10 +4873,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -4979,34 +4889,34 @@
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -5014,21 +4924,21 @@
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -5036,10 +4946,10 @@
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -5047,10 +4957,10 @@
         <v>46</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5058,23 +4968,23 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5082,10 +4992,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5093,10 +5003,10 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5104,10 +5014,10 @@
         <v>46</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -5115,10 +5025,10 @@
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5126,10 +5036,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5142,20 +5052,20 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>62</v>
@@ -5166,10 +5076,10 @@
         <v>46</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -5224,20 +5134,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5248,10 +5158,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5259,7 +5169,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5270,10 +5180,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5286,20 +5196,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
@@ -5310,10 +5220,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5326,21 +5236,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5348,20 +5258,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5372,10 +5282,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5388,21 +5298,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5437,20 +5347,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5461,10 +5371,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5472,7 +5382,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5483,10 +5393,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5499,10 +5409,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5510,10 +5420,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5521,21 +5431,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5543,10 +5453,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5554,10 +5464,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5570,20 +5480,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5594,10 +5504,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5610,10 +5520,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5621,10 +5531,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5632,10 +5542,10 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5643,23 +5553,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5667,10 +5577,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5678,10 +5588,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5689,10 +5599,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -5700,10 +5610,10 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5711,10 +5621,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5722,21 +5632,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5744,10 +5654,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5755,10 +5665,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5766,34 +5676,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5801,10 +5711,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5812,10 +5722,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5825,16 +5735,16 @@
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>75</v>
@@ -5842,16 +5752,16 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AD75" s="6" t="s">
         <v>75</v>
@@ -5859,16 +5769,16 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AD76" s="6" t="s">
         <v>75</v>
@@ -5876,10 +5786,10 @@
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -5887,21 +5797,21 @@
         <v>67</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AA80" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AC80" s="6" t="s">
         <v>75</v>
@@ -5909,21 +5819,21 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -5931,20 +5841,20 @@
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="13" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>62</v>
@@ -5955,10 +5865,10 @@
         <v>46</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -5971,21 +5881,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5993,10 +5903,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -6004,10 +5914,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -6020,10 +5930,10 @@
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -6031,10 +5941,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -6047,21 +5957,21 @@
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -6069,10 +5979,10 @@
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:31" ht="24" customHeight="1">
@@ -6080,10 +5990,10 @@
         <v>67</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="1:31" ht="24" customHeight="1">
@@ -6094,10 +6004,10 @@
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="B116" s="11"/>
       <c r="AA116" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AB116" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AC116" s="6" t="s">
         <v>75</v>
@@ -6105,10 +6015,10 @@
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:31" ht="24" customHeight="1">
@@ -6116,27 +6026,27 @@
         <v>67</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="1:31" ht="24" customHeight="1">
       <c r="B120" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AA120" s="6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AB120" s="6" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AC120" s="6" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AD120" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AE120" s="6" t="s">
         <v>75</v>
@@ -6144,34 +6054,34 @@
     </row>
     <row r="123" spans="1:31" ht="24" customHeight="1">
       <c r="A123" s="12" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="B124" s="13" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:31" ht="24" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
@@ -6179,10 +6089,10 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
@@ -6190,10 +6100,10 @@
         <v>46</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
@@ -6201,10 +6111,10 @@
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -6212,10 +6122,10 @@
         <v>46</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
@@ -6228,20 +6138,20 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="A140" s="12" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="13" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>62</v>
@@ -6252,10 +6162,10 @@
         <v>46</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
@@ -6268,10 +6178,10 @@
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
@@ -6279,10 +6189,10 @@
         <v>67</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
@@ -6293,22 +6203,22 @@
     <row r="151" spans="1:33" ht="24" customHeight="1">
       <c r="B151" s="11"/>
       <c r="AA151" s="6" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AB151" s="6" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AC151" s="6" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AD151" s="6" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AE151" s="6" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AF151" s="6" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AG151" s="6" t="s">
         <v>75</v>
@@ -6316,20 +6226,20 @@
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
       <c r="A154" s="12" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="B155" s="13" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>62</v>
@@ -6340,10 +6250,10 @@
         <v>46</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
@@ -6356,21 +6266,21 @@
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -6378,10 +6288,10 @@
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -6389,10 +6299,10 @@
         <v>46</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -6405,10 +6315,10 @@
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
@@ -6416,10 +6326,10 @@
         <v>46</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -6432,10 +6342,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -6443,21 +6353,21 @@
         <v>67</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AA178" s="6" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB178" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AC178" s="6" t="s">
         <v>75</v>
@@ -6465,10 +6375,10 @@
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
@@ -6476,10 +6386,10 @@
         <v>67</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -6488,14 +6398,12 @@
       </c>
     </row>
     <row r="183" spans="1:29" ht="24" customHeight="1">
-      <c r="B183" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="B183" s="11"/>
       <c r="AA183" s="6" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AC183" s="6" t="s">
         <v>75</v>
@@ -6561,7 +6469,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD72"/>
+  <dimension ref="A1:XFD71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6575,20 +6483,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6599,10 +6507,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6610,7 +6518,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6621,10 +6529,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6637,10 +6545,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6648,10 +6556,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6664,21 +6572,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6686,10 +6594,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6697,21 +6605,21 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6719,10 +6627,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6730,21 +6638,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6752,10 +6660,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6763,21 +6671,21 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6785,10 +6693,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6796,21 +6704,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6818,10 +6726,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6829,21 +6737,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6851,10 +6759,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6862,10 +6770,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6875,13 +6783,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6889,13 +6797,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6903,10 +6811,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6914,10 +6822,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6927,19 +6835,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6947,19 +6855,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6967,19 +6875,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6987,10 +6895,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6998,10 +6906,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -7014,23 +6922,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -7038,24 +6946,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -7063,10 +6971,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -7074,10 +6982,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -7086,53 +6994,28 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>429</v>
-      </c>
+      <c r="B71" s="11"/>
       <c r="AA71" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
-      <c r="B72" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA72" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB72" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC72" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD72" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE72" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="AF72" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="13">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -7172,9 +7055,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>AA71:AF71</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AF72</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7196,20 +7076,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7220,10 +7100,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7231,7 +7111,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7242,10 +7122,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7258,21 +7138,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7280,21 +7160,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7302,10 +7182,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7313,10 +7193,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7329,10 +7209,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7340,21 +7220,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7362,10 +7242,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7373,10 +7253,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7386,19 +7266,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7409,19 +7289,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7432,19 +7312,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7455,19 +7335,19 @@
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AE36" s="6" t="s">
         <v>90</v>
@@ -7478,10 +7358,10 @@
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7489,10 +7369,10 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
@@ -7503,40 +7383,40 @@
     <row r="41" spans="1:39" ht="24" customHeight="1">
       <c r="B41" s="11"/>
       <c r="AA41" s="6" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="AM41" s="6" t="s">
         <v>75</v>
@@ -7544,10 +7424,10 @@
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
@@ -7555,24 +7435,24 @@
         <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>75</v>
@@ -7580,10 +7460,10 @@
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7591,10 +7471,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7602,21 +7482,21 @@
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -7626,10 +7506,10 @@
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -7637,21 +7517,21 @@
         <v>67</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>75</v>
@@ -7659,10 +7539,10 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7670,10 +7550,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7686,10 +7566,10 @@
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -7697,24 +7577,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -7722,10 +7602,10 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7733,10 +7613,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7749,10 +7629,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7760,21 +7640,21 @@
         <v>67</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AC75" s="6" t="s">
         <v>75</v>
@@ -7782,10 +7662,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7793,10 +7673,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7809,10 +7689,10 @@
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
@@ -7820,19 +7700,19 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AC84" s="6" t="s">
         <v>75</v>
@@ -7840,10 +7720,10 @@
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7851,10 +7731,10 @@
         <v>46</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -7867,10 +7747,10 @@
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7878,10 +7758,10 @@
         <v>67</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
@@ -7891,22 +7771,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>541</v>
+        <v>378</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7914,22 +7794,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>541</v>
+        <v>378</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>75</v>
@@ -7937,22 +7817,22 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>541</v>
+        <v>378</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>75</v>
@@ -7960,22 +7840,22 @@
     </row>
     <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>541</v>
+        <v>378</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="AF97" s="6" t="s">
         <v>75</v>
@@ -7983,10 +7863,10 @@
     </row>
     <row r="99" spans="1:32" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="24" customHeight="1">
@@ -7994,10 +7874,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="24" customHeight="1">
@@ -8010,10 +7890,10 @@
     </row>
     <row r="104" spans="1:32" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="24" customHeight="1">
@@ -8021,10 +7901,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="24" customHeight="1">
@@ -8112,20 +7992,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8136,10 +8016,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8147,7 +8027,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8158,10 +8038,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8174,10 +8054,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8185,10 +8065,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8201,21 +8081,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8223,10 +8103,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8234,10 +8114,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8247,19 +8127,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8267,10 +8147,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8278,10 +8158,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8290,11 +8170,9 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>581</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8332,20 +8210,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8356,10 +8234,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8367,7 +8245,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8378,10 +8256,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8391,15 +8269,15 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8407,10 +8285,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8423,21 +8301,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8445,10 +8323,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8456,10 +8334,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8470,13 +8348,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8484,10 +8362,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8495,10 +8373,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8511,34 +8389,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8546,10 +8424,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8557,10 +8435,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8570,15 +8448,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8586,10 +8464,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8602,23 +8480,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8626,10 +8504,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8642,23 +8520,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8666,10 +8544,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8682,10 +8560,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8693,10 +8571,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8709,23 +8587,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8733,10 +8611,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8749,10 +8627,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8760,27 +8638,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8788,10 +8666,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8799,27 +8677,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8827,23 +8705,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8851,10 +8729,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8862,23 +8740,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8886,10 +8764,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8897,34 +8775,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8932,10 +8810,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8943,10 +8821,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8959,10 +8837,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8970,10 +8848,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8986,10 +8864,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8997,10 +8875,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -9013,34 +8891,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -9048,10 +8926,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -9059,10 +8937,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -9072,15 +8950,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -9088,10 +8966,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -9104,10 +8982,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -9115,10 +8993,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9131,34 +9009,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9166,10 +9044,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9177,10 +9055,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9193,10 +9071,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9204,10 +9082,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9220,10 +9098,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9231,10 +9109,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
+++ b/cmip6/models/canesm5/cmip6_cccma_canesm5_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="869">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -237,123 +237,141 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -765,12 +783,21 @@
     <t>Soil humidity</t>
   </si>
   <si>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
+  </si>
+  <si>
+    <t>Vegetation state</t>
+  </si>
+  <si>
     <t>Vegetation type</t>
   </si>
   <si>
-    <t>Vegetation state</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.3.1.3 </t>
   </si>
   <si>
@@ -786,7 +813,10 @@
     <t>Distinction between direct and diffuse albedo</t>
   </si>
   <si>
-    <t>No distinction between direct and diffuse albedo</t>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -873,10 +903,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -984,7 +1014,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>Topmodel-based</t>
+    <t>topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1062,10 +1092,10 @@
     <t>cmip6.land.soil.heat_treatment.processes</t>
   </si>
   <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>Coupling with snow temperature</t>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1128,7 +1158,10 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>Constant</t>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1143,7 +1176,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>Diagnostic</t>
+    <t>diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1197,6 +1230,12 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
+  </si>
+  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1212,18 +1251,24 @@
     <t>Other: snow refreezing</t>
   </si>
   <si>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
+  </si>
+  <si>
     <t>Snow interception</t>
   </si>
   <si>
     <t>Snow melting</t>
   </si>
   <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
-  </si>
-  <si>
     <t>4.1.1.12 *</t>
   </si>
   <si>
@@ -1254,7 +1299,7 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>Prescribed</t>
+    <t>prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1266,16 +1311,16 @@
     <t>cmip6.land.snow.snow_albedo.functions</t>
   </si>
   <si>
-    <t>Snow age</t>
-  </si>
-  <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
   </si>
   <si>
     <t>5.1.1</t>
@@ -1350,7 +1395,10 @@
     <t>Vegetation types</t>
   </si>
   <si>
-    <t>Biome types</t>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1368,15 +1416,21 @@
     <t>C3 grass</t>
   </si>
   <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
     <t>Broadleaf tree</t>
   </si>
   <si>
     <t>Needleleaf tree</t>
   </si>
   <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.8 </t>
   </si>
   <si>
@@ -1389,40 +1443,40 @@
     <t>cmip6.land.vegetation.biome_types</t>
   </si>
   <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
   </si>
   <si>
     <t>5.1.1.9 *</t>
@@ -1440,10 +1494,13 @@
     <t>Dynamical (varying from simulation)</t>
   </si>
   <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Prescribed (varying from files)</t>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1482,7 +1539,7 @@
     <t>cmip6.land.vegetation.phenology</t>
   </si>
   <si>
-    <t>Diagnostic (vegetation map)</t>
+    <t>diagnostic (vegetation map)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.13 </t>
@@ -1584,15 +1641,24 @@
     <t>CO2</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Light</t>
   </si>
   <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1677,10 +1743,13 @@
     <t>Beta</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Combined</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1695,7 +1764,7 @@
     <t>cmip6.land.energy_balance.processes</t>
   </si>
   <si>
-    <t>Transpiration</t>
+    <t>transpiration</t>
   </si>
   <si>
     <t>7.1.1</t>
@@ -1758,13 +1827,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1908,13 +1977,16 @@
     <t>Leaves + stems + roots</t>
   </si>
   <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1932,13 +2004,16 @@
     <t>Explicitly calculated</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Function of plant allometry</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2253,10 +2328,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2295,10 +2370,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Tracers</t>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2316,7 +2391,10 @@
     <t>Present day</t>
   </si>
   <si>
-    <t>Adapted for other periods</t>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2364,7 +2442,10 @@
     <t>Direct (large rivers)</t>
   </si>
   <si>
-    <t>Diffuse</t>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2505,10 +2586,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3211,20 +3292,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3235,10 +3316,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3246,7 +3327,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3257,10 +3338,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3273,10 +3354,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3284,10 +3365,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3300,21 +3381,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>705</v>
+        <v>730</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>707</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3322,10 +3403,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3333,10 +3414,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>709</v>
+        <v>734</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3373,20 +3454,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3397,10 +3478,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3408,7 +3489,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3419,10 +3500,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3435,10 +3516,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3446,10 +3527,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3462,21 +3543,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3484,21 +3565,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>728</v>
+        <v>753</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3506,10 +3587,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3517,10 +3598,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>733</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3528,21 +3609,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>734</v>
+        <v>759</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>735</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>737</v>
+        <v>762</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3550,10 +3631,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>738</v>
+        <v>763</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>739</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3561,10 +3642,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3575,10 +3656,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3586,21 +3667,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>744</v>
+        <v>769</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>746</v>
+        <v>771</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>747</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3610,10 +3691,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>748</v>
+        <v>773</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3621,10 +3702,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3637,10 +3718,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>752</v>
+        <v>777</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>753</v>
+        <v>778</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3648,10 +3729,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>754</v>
+        <v>779</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>755</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3662,13 +3743,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3676,10 +3757,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>758</v>
+        <v>783</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3687,21 +3768,21 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>760</v>
+        <v>785</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>761</v>
+        <v>786</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>762</v>
+        <v>787</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3709,10 +3790,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3720,10 +3801,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3736,10 +3817,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3747,10 +3828,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3763,23 +3844,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3787,21 +3868,21 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>779</v>
+        <v>806</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3809,10 +3890,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>780</v>
+        <v>807</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3820,10 +3901,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>782</v>
+        <v>809</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>783</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3834,13 +3915,13 @@
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
@@ -3896,20 +3977,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>785</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3920,10 +4001,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3931,7 +4012,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3942,10 +4023,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3958,21 +4039,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>794</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>795</v>
+        <v>822</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>796</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3982,21 +4063,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>798</v>
+        <v>825</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>799</v>
+        <v>826</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4004,10 +4085,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>800</v>
+        <v>827</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>801</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4015,10 +4096,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>802</v>
+        <v>829</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>803</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4029,13 +4110,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>757</v>
+        <v>782</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4043,10 +4124,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>804</v>
+        <v>831</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4054,10 +4135,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>806</v>
+        <v>833</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4065,10 +4146,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4076,10 +4157,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4092,34 +4173,34 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4129,10 +4210,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -4140,21 +4221,21 @@
         <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -4162,10 +4243,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>822</v>
+        <v>849</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -4173,10 +4254,10 @@
         <v>67</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4187,13 +4268,13 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>825</v>
+        <v>852</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>826</v>
+        <v>853</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
       <c r="AD50" s="6" t="s">
         <v>75</v>
@@ -4201,21 +4282,21 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>829</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4225,21 +4306,21 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>832</v>
+        <v>859</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>833</v>
+        <v>860</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>834</v>
+        <v>861</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>835</v>
+        <v>862</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4249,20 +4330,20 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>836</v>
+        <v>863</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>837</v>
+        <v>864</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>838</v>
+        <v>865</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>62</v>
@@ -4273,10 +4354,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4668,7 +4749,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>85</v>
@@ -4694,7 +4775,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>85</v>
@@ -4720,7 +4801,7 @@
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="B38" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA38" s="6" t="s">
         <v>85</v>
@@ -4746,10 +4827,10 @@
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4757,10 +4838,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
@@ -4768,10 +4849,10 @@
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4779,10 +4860,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1">
@@ -4795,23 +4876,23 @@
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4819,10 +4900,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -4835,10 +4916,10 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4846,10 +4927,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -4862,10 +4943,10 @@
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4873,10 +4954,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -4889,34 +4970,34 @@
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
@@ -4924,21 +5005,21 @@
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -4946,10 +5027,10 @@
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -4957,10 +5038,10 @@
         <v>46</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -4968,23 +5049,23 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4992,10 +5073,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5003,10 +5084,10 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5014,10 +5095,10 @@
         <v>46</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -5025,10 +5106,10 @@
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5036,10 +5117,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5052,20 +5133,20 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>62</v>
@@ -5076,10 +5157,10 @@
         <v>46</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -5134,20 +5215,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5158,10 +5239,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5169,7 +5250,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5180,10 +5261,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5196,20 +5277,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
@@ -5220,10 +5301,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5236,21 +5317,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5258,20 +5339,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5282,10 +5363,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5298,21 +5379,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5347,20 +5428,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5371,10 +5452,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5382,7 +5463,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5393,10 +5474,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5409,10 +5490,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5420,10 +5501,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5431,21 +5512,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5453,10 +5534,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5464,10 +5545,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5480,20 +5561,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5504,10 +5585,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5520,10 +5601,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5531,10 +5612,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5542,10 +5623,10 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5553,23 +5634,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5577,10 +5658,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5588,10 +5669,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5599,10 +5680,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -5610,10 +5691,10 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5621,10 +5702,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5632,21 +5713,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5654,10 +5735,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5665,10 +5746,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5676,34 +5757,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5711,10 +5792,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5722,10 +5803,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5735,16 +5816,16 @@
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>75</v>
@@ -5752,16 +5833,16 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AD75" s="6" t="s">
         <v>75</v>
@@ -5769,16 +5850,16 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AD76" s="6" t="s">
         <v>75</v>
@@ -5786,10 +5867,10 @@
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -5797,21 +5878,21 @@
         <v>67</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="B80" s="11" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="AA80" s="6" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AC80" s="6" t="s">
         <v>75</v>
@@ -5819,21 +5900,21 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -5841,20 +5922,20 @@
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="13" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>62</v>
@@ -5865,10 +5946,10 @@
         <v>46</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -5881,21 +5962,21 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5903,10 +5984,10 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -5914,10 +5995,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -5930,10 +6011,10 @@
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -5941,10 +6022,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -5957,21 +6038,21 @@
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -5979,10 +6060,10 @@
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:31" ht="24" customHeight="1">
@@ -5990,10 +6071,10 @@
         <v>67</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:31" ht="24" customHeight="1">
@@ -6004,10 +6085,10 @@
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="B116" s="11"/>
       <c r="AA116" s="6" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AB116" s="6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AC116" s="6" t="s">
         <v>75</v>
@@ -6015,10 +6096,10 @@
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:31" ht="24" customHeight="1">
@@ -6026,27 +6107,27 @@
         <v>67</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:31" ht="24" customHeight="1">
       <c r="B120" s="11" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AA120" s="6" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AB120" s="6" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AC120" s="6" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AD120" s="6" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AE120" s="6" t="s">
         <v>75</v>
@@ -6054,34 +6135,34 @@
     </row>
     <row r="123" spans="1:31" ht="24" customHeight="1">
       <c r="A123" s="12" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="B124" s="13" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:31" ht="24" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
@@ -6089,10 +6170,10 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
@@ -6100,10 +6181,10 @@
         <v>46</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
@@ -6111,10 +6192,10 @@
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -6122,10 +6203,10 @@
         <v>46</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
@@ -6138,20 +6219,20 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="A140" s="12" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="13" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>62</v>
@@ -6162,10 +6243,10 @@
         <v>46</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
@@ -6178,10 +6259,10 @@
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
@@ -6189,10 +6270,10 @@
         <v>67</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
@@ -6203,22 +6284,22 @@
     <row r="151" spans="1:33" ht="24" customHeight="1">
       <c r="B151" s="11"/>
       <c r="AA151" s="6" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="AB151" s="6" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AC151" s="6" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="AD151" s="6" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AE151" s="6" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="AF151" s="6" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AG151" s="6" t="s">
         <v>75</v>
@@ -6226,20 +6307,20 @@
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
       <c r="A154" s="12" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="B155" s="13" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>62</v>
@@ -6250,10 +6331,10 @@
         <v>46</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
@@ -6266,21 +6347,21 @@
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -6288,10 +6369,10 @@
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -6299,10 +6380,10 @@
         <v>46</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -6315,10 +6396,10 @@
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
       <c r="A171" s="9" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
@@ -6326,10 +6407,10 @@
         <v>46</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -6342,10 +6423,10 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:29" ht="24" customHeight="1">
@@ -6353,21 +6434,21 @@
         <v>67</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="B178" s="11" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AA178" s="6" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AB178" s="6" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AC178" s="6" t="s">
         <v>75</v>
@@ -6375,10 +6456,10 @@
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
@@ -6386,10 +6467,10 @@
         <v>67</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="24" customHeight="1">
@@ -6400,10 +6481,10 @@
     <row r="183" spans="1:29" ht="24" customHeight="1">
       <c r="B183" s="11"/>
       <c r="AA183" s="6" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="AB183" s="6" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AC183" s="6" t="s">
         <v>75</v>
@@ -6483,20 +6564,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6507,10 +6588,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6518,7 +6599,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6529,10 +6610,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6545,10 +6626,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6556,10 +6637,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6572,21 +6653,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6594,10 +6675,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6605,21 +6686,21 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6627,10 +6708,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6638,21 +6719,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6660,10 +6741,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6671,21 +6752,21 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6693,10 +6774,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6704,21 +6785,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6726,10 +6807,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6737,21 +6818,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6759,10 +6840,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6770,10 +6851,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6783,13 +6864,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6797,13 +6878,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6811,10 +6892,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6822,10 +6903,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6835,19 +6916,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6855,19 +6936,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6875,19 +6956,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6895,10 +6976,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6906,10 +6987,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6922,23 +7003,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6946,24 +7027,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -6971,10 +7052,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -6982,10 +7063,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -6996,19 +7077,19 @@
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="11"/>
       <c r="AA71" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
@@ -7076,20 +7157,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7100,10 +7181,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7111,7 +7192,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7122,10 +7203,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7138,21 +7219,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7160,21 +7241,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7182,10 +7263,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7193,10 +7274,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7209,10 +7290,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7220,21 +7301,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7242,10 +7323,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7253,10 +7334,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7266,19 +7347,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7289,19 +7370,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7312,19 +7393,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7335,19 +7416,19 @@
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="AE36" s="6" t="s">
         <v>90</v>
@@ -7358,10 +7439,10 @@
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7369,10 +7450,10 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
@@ -7383,40 +7464,40 @@
     <row r="41" spans="1:39" ht="24" customHeight="1">
       <c r="B41" s="11"/>
       <c r="AA41" s="6" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="AM41" s="6" t="s">
         <v>75</v>
@@ -7424,10 +7505,10 @@
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
@@ -7435,24 +7516,24 @@
         <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>75</v>
@@ -7460,10 +7541,10 @@
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7471,10 +7552,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7482,21 +7563,21 @@
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -7506,10 +7587,10 @@
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
@@ -7517,21 +7598,21 @@
         <v>67</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="AC57" s="6" t="s">
         <v>75</v>
@@ -7539,10 +7620,10 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7550,10 +7631,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7566,10 +7647,10 @@
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -7577,24 +7658,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -7602,10 +7683,10 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7613,10 +7694,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7629,10 +7710,10 @@
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
@@ -7640,21 +7721,21 @@
         <v>67</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AC75" s="6" t="s">
         <v>75</v>
@@ -7662,10 +7743,10 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7673,10 +7754,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7689,10 +7770,10 @@
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
@@ -7700,19 +7781,19 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AC84" s="6" t="s">
         <v>75</v>
@@ -7720,10 +7801,10 @@
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7731,10 +7812,10 @@
         <v>46</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -7747,10 +7828,10 @@
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7758,10 +7839,10 @@
         <v>67</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
@@ -7771,22 +7852,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7794,22 +7875,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>75</v>
@@ -7817,22 +7898,22 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>75</v>
@@ -7840,22 +7921,22 @@
     </row>
     <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AD97" s="6" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="AE97" s="6" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="AF97" s="6" t="s">
         <v>75</v>
@@ -7863,10 +7944,10 @@
     </row>
     <row r="99" spans="1:32" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="24" customHeight="1">
@@ -7874,10 +7955,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="24" customHeight="1">
@@ -7890,10 +7971,10 @@
     </row>
     <row r="104" spans="1:32" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="24" customHeight="1">
@@ -7901,10 +7982,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="24" customHeight="1">
@@ -7992,20 +8073,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8016,10 +8097,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8027,7 +8108,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8038,10 +8119,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8054,10 +8135,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8065,10 +8146,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8081,21 +8162,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8103,10 +8184,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8114,10 +8195,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8127,19 +8208,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8147,10 +8228,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8158,10 +8239,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8172,7 +8253,7 @@
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8210,20 +8291,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8234,10 +8315,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8245,7 +8326,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8256,10 +8337,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8269,15 +8350,15 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8285,10 +8366,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8301,21 +8382,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8323,10 +8404,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8334,10 +8415,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8348,13 +8429,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8362,10 +8443,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8373,10 +8454,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8389,34 +8470,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8424,10 +8505,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8435,10 +8516,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8448,15 +8529,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8464,10 +8545,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8480,23 +8561,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8504,10 +8585,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8520,23 +8601,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8544,10 +8625,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8560,10 +8641,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8571,10 +8652,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8587,23 +8668,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8611,10 +8692,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8627,10 +8708,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8638,27 +8719,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8666,10 +8747,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8677,27 +8758,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8705,23 +8786,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8729,10 +8810,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8740,23 +8821,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8764,10 +8845,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8775,34 +8856,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8810,10 +8891,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8821,10 +8902,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8837,10 +8918,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8848,10 +8929,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8864,10 +8945,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8875,10 +8956,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8891,34 +8972,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8926,10 +9007,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8937,10 +9018,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8950,15 +9031,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8966,10 +9047,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8982,10 +9063,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -8993,10 +9074,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9009,34 +9090,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>677</v>
+        <v>702</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>678</v>
+        <v>703</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9044,10 +9125,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9055,10 +9136,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9071,10 +9152,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9082,10 +9163,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9098,10 +9179,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9109,10 +9190,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
